--- a/xgboost_sampling_comparison.xlsx
+++ b/xgboost_sampling_comparison.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5879</v>
+        <v>0.6186</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7494</v>
+        <v>0.766</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7497</v>
+        <v>0.7696</v>
       </c>
       <c r="H2" t="n">
-        <v>0.924</v>
+        <v>0.9187</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7739</v>
+        <v>0.7618</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5879</v>
+        <v>0.6186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7494</v>
+        <v>0.766</v>
       </c>
       <c r="F3" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7497</v>
+        <v>0.7696</v>
       </c>
       <c r="H3" t="n">
-        <v>0.924</v>
+        <v>0.9187</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7739</v>
+        <v>0.7618</v>
       </c>
     </row>
     <row r="4">
@@ -558,25 +558,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7368</v>
+        <v>0.75</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5571</v>
+        <v>0.61</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7336</v>
+        <v>0.7569</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7368</v>
+        <v>0.75</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7317</v>
+        <v>0.7673</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9192</v>
+        <v>0.9179</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7662</v>
+        <v>0.7655</v>
       </c>
     </row>
     <row r="5">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.519</v>
+        <v>0.509</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6481</v>
+        <v>0.6468</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7187</v>
+        <v>0.7154</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8818</v>
+        <v>0.8822</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7098</v>
+        <v>0.7109</v>
       </c>
     </row>
     <row r="6">
@@ -624,25 +624,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7105</v>
+        <v>0.75</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5458</v>
+        <v>0.5851</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7205</v>
+        <v>0.7553</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7105</v>
+        <v>0.75</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7339</v>
+        <v>0.7618</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9182</v>
+        <v>0.9267</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7673</v>
+        <v>0.7625</v>
       </c>
     </row>
   </sheetData>
